--- a/tables/results_classification_all_period_space_auc.xlsx
+++ b/tables/results_classification_all_period_space_auc.xlsx
@@ -1046,7 +1046,7 @@
         <v>27</v>
       </c>
       <c r="F12">
-        <v>0.7077869579944092</v>
+        <v>0.7075878782418987</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1055,10 +1055,10 @@
         <v>30</v>
       </c>
       <c r="I12">
-        <v>0.5883289124668435</v>
+        <v>0.6196286472148541</v>
       </c>
       <c r="J12">
-        <v>0.7169031393140431</v>
+        <v>0.6852865601608759</v>
       </c>
       <c r="K12">
         <v>44208</v>
@@ -1096,7 +1096,7 @@
         <v>27</v>
       </c>
       <c r="F13">
-        <v>0.7132097485092039</v>
+        <v>0.7111261696561153</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1105,10 +1105,10 @@
         <v>30</v>
       </c>
       <c r="I13">
-        <v>0.6196172248803827</v>
+        <v>0.6172248803827751</v>
       </c>
       <c r="J13">
-        <v>0.7044334975369458</v>
+        <v>0.7</v>
       </c>
       <c r="K13">
         <v>34244</v>
@@ -1246,7 +1246,7 @@
         <v>25</v>
       </c>
       <c r="F16">
-        <v>0.7343363219397515</v>
+        <v>0.7341012284785765</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -1255,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="I16">
-        <v>0.7209302325581395</v>
+        <v>0.7232558139534884</v>
       </c>
       <c r="J16">
-        <v>0.6313181367690783</v>
+        <v>0.632804757185332</v>
       </c>
       <c r="K16">
         <v>34244</v>
@@ -1296,7 +1296,7 @@
         <v>26</v>
       </c>
       <c r="F17">
-        <v>0.7488998818683168</v>
+        <v>0.750176928208989</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -1305,7 +1305,7 @@
         <v>30</v>
       </c>
       <c r="I17">
-        <v>0.6237037037037036</v>
+        <v>0.625679012345679</v>
       </c>
       <c r="J17">
         <v>0.7434804164600892</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1343,28 +1343,28 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>0.7573100768020729</v>
+        <v>0.7584187774939901</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
       </c>
       <c r="I18">
-        <v>0.6612149532710281</v>
+        <v>0.7009857612267251</v>
       </c>
       <c r="J18">
-        <v>0.7222772277227723</v>
+        <v>0.682480957562568</v>
       </c>
       <c r="K18">
-        <v>34244</v>
+        <v>44028</v>
       </c>
       <c r="L18">
-        <v>2448</v>
+        <v>11016</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -1373,15 +1373,15 @@
         <v>31</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1393,28 +1393,28 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>0.7584834937732927</v>
+        <v>0.7596777551586934</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19">
-        <v>0.6867469879518072</v>
+        <v>0.7710280373831776</v>
       </c>
       <c r="J19">
-        <v>0.697170837867247</v>
+        <v>0.6232673267326733</v>
       </c>
       <c r="K19">
-        <v>44028</v>
+        <v>34244</v>
       </c>
       <c r="L19">
-        <v>11016</v>
+        <v>2448</v>
       </c>
       <c r="M19" t="s">
         <v>24</v>
@@ -1423,10 +1423,10 @@
         <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
